--- a/coordinates_sample/区划编号.xlsx
+++ b/coordinates_sample/区划编号.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/CSV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="郡区划编号" sheetId="4" r:id="rId2"/>
     <sheet name="划分依据" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1233,6 +1233,7 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>C2</t>
@@ -1243,6 +1244,7 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>+</t>
@@ -1253,6 +1255,7 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>F2</t>
@@ -1401,9 +1404,6 @@
     <t>南阳郡;235</t>
   </si>
   <si>
-    <t>南阳郡;401</t>
-  </si>
-  <si>
     <t>江夏郡;402</t>
   </si>
   <si>
@@ -1570,6 +1570,10 @@
   </si>
   <si>
     <t>日南郡;807</t>
+  </si>
+  <si>
+    <t>南郡;401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1577,8 +1581,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="180" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1586,6 +1590,7 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1643,8 +1648,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4656,10 +4661,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A104"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A105"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4824,364 +4829,376 @@
         <v>406</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
         <v>437</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>

--- a/coordinates_sample/区划编号.xlsx
+++ b/coordinates_sample/区划编号.xlsx
@@ -4664,7 +4664,7 @@
   <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5000,83 +5000,92 @@
       <c r="A64" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>453</v>
       </c>

--- a/coordinates_sample/区划编号.xlsx
+++ b/coordinates_sample/区划编号.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2040" yWindow="1160" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -4664,7 +4664,7 @@
   <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5024,15 +5024,24 @@
       <c r="A67" t="s">
         <v>440</v>
       </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>441</v>
       </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>442</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">

--- a/coordinates_sample/区划编号.xlsx
+++ b/coordinates_sample/区划编号.xlsx
@@ -4664,7 +4664,7 @@
   <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5048,15 +5048,24 @@
       <c r="A70" t="s">
         <v>443</v>
       </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>444</v>
       </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>445</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">

--- a/coordinates_sample/区划编号.xlsx
+++ b/coordinates_sample/区划编号.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1160" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2020" yWindow="680" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -4663,88 +4663,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>390</v>
       </c>

--- a/coordinates_sample/区划编号.xlsx
+++ b/coordinates_sample/区划编号.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB054F6A-3695-B74A-9E2E-B423FF52C663}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="680" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="6060" yWindow="480" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
     <sheet name="郡区划编号" sheetId="4" r:id="rId2"/>
     <sheet name="划分依据" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="481">
   <si>
     <t>刺史部</t>
   </si>
@@ -1575,16 +1576,27 @@
     <t>南郡;401</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>全国</t>
+    <rPh sb="0" eb="2">
+      <t>quan'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1665,6 +1677,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1991,15 +2006,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet 1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet 1"/>
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="111" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="10.83203125" style="3"/>
     <col min="5" max="5" width="10.83203125" style="3"/>
@@ -2007,7 +2022,7 @@
     <col min="7" max="7" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2027,7 +2042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2058,7 +2073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" s="1" customFormat="1">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -2084,7 +2099,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" s="1" customFormat="1">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -2110,7 +2125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" s="1" customFormat="1">
       <c r="B5" s="3">
         <v>1</v>
       </c>
@@ -2136,7 +2151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" s="1" customFormat="1">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -2162,7 +2177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" s="1" customFormat="1">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -2188,7 +2203,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" s="1" customFormat="1">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -2214,7 +2229,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2242,7 +2257,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -2267,7 +2282,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="B11" s="3">
         <v>2</v>
       </c>
@@ -2292,7 +2307,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -2317,7 +2332,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="B13" s="3">
         <v>2</v>
       </c>
@@ -2342,7 +2357,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -2370,7 +2385,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="B15" s="3">
         <v>2</v>
       </c>
@@ -2395,7 +2410,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="B16" s="3">
         <v>2</v>
       </c>
@@ -2420,7 +2435,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="B17" s="3">
         <v>2</v>
       </c>
@@ -2445,7 +2460,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="B18" s="3">
         <v>2</v>
       </c>
@@ -2470,7 +2485,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="B19" s="3">
         <v>2</v>
       </c>
@@ -2495,7 +2510,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="B20" s="3">
         <v>2</v>
       </c>
@@ -2520,7 +2535,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="B21" s="3">
         <v>2</v>
       </c>
@@ -2545,7 +2560,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="B22" s="3">
         <v>2</v>
       </c>
@@ -2570,7 +2585,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="B23" s="3">
         <v>2</v>
       </c>
@@ -2595,7 +2610,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -2623,7 +2638,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="B25" s="3">
         <v>2</v>
       </c>
@@ -2648,7 +2663,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="B26" s="3">
         <v>2</v>
       </c>
@@ -2673,7 +2688,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="B27" s="3">
         <v>2</v>
       </c>
@@ -2698,7 +2713,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="B28" s="3">
         <v>2</v>
       </c>
@@ -2723,7 +2738,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="B29" s="3">
         <v>2</v>
       </c>
@@ -2748,7 +2763,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="B30" s="3">
         <v>2</v>
       </c>
@@ -2773,7 +2788,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="B31" s="3">
         <v>2</v>
       </c>
@@ -2798,7 +2813,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -2826,7 +2841,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="B33" s="3">
         <v>2</v>
       </c>
@@ -2851,7 +2866,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9">
       <c r="B34" s="3">
         <v>2</v>
       </c>
@@ -2876,7 +2891,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9">
       <c r="B35" s="3">
         <v>2</v>
       </c>
@@ -2901,7 +2916,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9">
       <c r="B36" s="3">
         <v>2</v>
       </c>
@@ -2926,7 +2941,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9">
       <c r="B37" s="3">
         <v>2</v>
       </c>
@@ -2951,7 +2966,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9">
       <c r="B38" s="3">
         <v>2</v>
       </c>
@@ -2976,7 +2991,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9">
       <c r="B39" s="3">
         <v>2</v>
       </c>
@@ -3001,7 +3016,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9">
       <c r="B40" s="3">
         <v>2</v>
       </c>
@@ -3026,7 +3041,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>139</v>
       </c>
@@ -3054,7 +3069,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9">
       <c r="B42" s="3">
         <v>2</v>
       </c>
@@ -3079,7 +3094,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9">
       <c r="B43" s="3">
         <v>3</v>
       </c>
@@ -3104,7 +3119,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9">
       <c r="B44" s="3">
         <v>3</v>
       </c>
@@ -3129,7 +3144,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9">
       <c r="B45" s="3">
         <v>3</v>
       </c>
@@ -3154,7 +3169,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9">
       <c r="B46" s="3">
         <v>3</v>
       </c>
@@ -3179,7 +3194,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>159</v>
       </c>
@@ -3207,7 +3222,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9">
       <c r="B48" s="3">
         <v>4</v>
       </c>
@@ -3232,7 +3247,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9">
       <c r="B49" s="3">
         <v>4</v>
       </c>
@@ -3257,7 +3272,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9">
       <c r="B50" s="3">
         <v>4</v>
       </c>
@@ -3282,7 +3297,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9">
       <c r="B51" s="3">
         <v>4</v>
       </c>
@@ -3307,7 +3322,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9">
       <c r="B52" s="3">
         <v>4</v>
       </c>
@@ -3332,7 +3347,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9">
       <c r="B53" s="3">
         <v>4</v>
       </c>
@@ -3357,7 +3372,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>183</v>
       </c>
@@ -3385,7 +3400,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9">
       <c r="B55" s="3">
         <v>3</v>
       </c>
@@ -3410,7 +3425,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9">
       <c r="B56" s="3">
         <v>3</v>
       </c>
@@ -3435,7 +3450,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9">
       <c r="B57" s="3">
         <v>3</v>
       </c>
@@ -3460,7 +3475,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9">
       <c r="B58" s="3">
         <v>3</v>
       </c>
@@ -3485,7 +3500,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9">
       <c r="B59" s="3">
         <v>3</v>
       </c>
@@ -3510,7 +3525,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>202</v>
       </c>
@@ -3538,7 +3553,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9">
       <c r="B61" s="3">
         <v>5</v>
       </c>
@@ -3563,7 +3578,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9">
       <c r="B62" s="3">
         <v>5</v>
       </c>
@@ -3588,7 +3603,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9">
       <c r="B63" s="3">
         <v>5</v>
       </c>
@@ -3613,7 +3628,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9">
       <c r="B64" s="3">
         <v>5</v>
       </c>
@@ -3638,7 +3653,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9">
       <c r="B65" s="3">
         <v>5</v>
       </c>
@@ -3663,7 +3678,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9">
       <c r="B66" s="3">
         <v>5</v>
       </c>
@@ -3688,7 +3703,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9">
       <c r="B67" s="3">
         <v>5</v>
       </c>
@@ -3713,7 +3728,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9">
       <c r="B68" s="3">
         <v>6</v>
       </c>
@@ -3738,7 +3753,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>230</v>
       </c>
@@ -3766,7 +3781,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9">
       <c r="B70" s="3">
         <v>6</v>
       </c>
@@ -3791,7 +3806,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9">
       <c r="B71" s="3">
         <v>6</v>
       </c>
@@ -3816,7 +3831,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9">
       <c r="B72" s="3">
         <v>6</v>
       </c>
@@ -3841,7 +3856,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9">
       <c r="B73" s="3">
         <v>6</v>
       </c>
@@ -3866,7 +3881,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9">
       <c r="B74" s="3">
         <v>6</v>
       </c>
@@ -3891,7 +3906,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9">
       <c r="B75" s="3">
         <v>6</v>
       </c>
@@ -3916,7 +3931,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9">
       <c r="B76" s="3">
         <v>6</v>
       </c>
@@ -3941,7 +3956,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>255</v>
       </c>
@@ -3969,7 +3984,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9">
       <c r="B78" s="3">
         <v>7</v>
       </c>
@@ -3994,7 +4009,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9">
       <c r="B79" s="3">
         <v>7</v>
       </c>
@@ -4019,7 +4034,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9">
       <c r="B80" s="3">
         <v>7</v>
       </c>
@@ -4044,7 +4059,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9">
       <c r="B81" s="3">
         <v>7</v>
       </c>
@@ -4069,7 +4084,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9">
       <c r="B82" s="3">
         <v>7</v>
       </c>
@@ -4094,7 +4109,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>274</v>
       </c>
@@ -4122,7 +4137,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9">
       <c r="B84" s="3">
         <v>7</v>
       </c>
@@ -4147,7 +4162,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9">
       <c r="B85" s="3">
         <v>7</v>
       </c>
@@ -4172,7 +4187,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9">
       <c r="B86" s="3">
         <v>7</v>
       </c>
@@ -4197,7 +4212,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9">
       <c r="B87" s="3">
         <v>7</v>
       </c>
@@ -4222,7 +4237,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>290</v>
       </c>
@@ -4250,7 +4265,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9">
       <c r="B89" s="3">
         <v>7</v>
       </c>
@@ -4275,7 +4290,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9">
       <c r="B90" s="3">
         <v>7</v>
       </c>
@@ -4300,7 +4315,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9">
       <c r="B91" s="3">
         <v>7</v>
       </c>
@@ -4325,7 +4340,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9">
       <c r="B92" s="3">
         <v>7</v>
       </c>
@@ -4350,7 +4365,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9">
       <c r="B93" s="3">
         <v>7</v>
       </c>
@@ -4375,7 +4390,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9">
       <c r="B94" s="3">
         <v>7</v>
       </c>
@@ -4400,7 +4415,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9">
       <c r="B95" s="3">
         <v>7</v>
       </c>
@@ -4425,7 +4440,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9">
       <c r="B96" s="3">
         <v>7</v>
       </c>
@@ -4450,7 +4465,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9">
       <c r="B97" s="3">
         <v>7</v>
       </c>
@@ -4475,7 +4490,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>322</v>
       </c>
@@ -4503,7 +4518,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9">
       <c r="B99" s="3">
         <v>8</v>
       </c>
@@ -4528,7 +4543,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:9">
       <c r="B100" s="3">
         <v>8</v>
       </c>
@@ -4553,7 +4568,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:9">
       <c r="B101" s="3">
         <v>8</v>
       </c>
@@ -4578,7 +4593,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9">
       <c r="B102" s="3">
         <v>8</v>
       </c>
@@ -4603,7 +4618,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9">
       <c r="B103" s="3">
         <v>8</v>
       </c>
@@ -4628,7 +4643,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9">
       <c r="B104" s="3">
         <v>8</v>
       </c>
@@ -4660,21 +4675,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>376</v>
       </c>
@@ -4682,197 +4697,218 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>415</v>
       </c>
@@ -4880,57 +4916,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>425</v>
       </c>
@@ -4938,52 +4974,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>435</v>
       </c>
@@ -4991,7 +5027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>436</v>
       </c>
@@ -4999,7 +5035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>437</v>
       </c>
@@ -5007,7 +5043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>438</v>
       </c>
@@ -5015,7 +5051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>439</v>
       </c>
@@ -5023,7 +5059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>440</v>
       </c>
@@ -5031,7 +5067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>441</v>
       </c>
@@ -5039,7 +5075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>442</v>
       </c>
@@ -5047,7 +5083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>443</v>
       </c>
@@ -5055,7 +5091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>444</v>
       </c>
@@ -5063,7 +5099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>445</v>
       </c>
@@ -5071,162 +5107,171 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B95" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1">
       <c r="A99" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1">
       <c r="A100" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1">
       <c r="A104" t="s">
         <v>477</v>
       </c>
@@ -5239,32 +5284,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>347</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>348</v>
       </c>
@@ -5272,7 +5314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>349</v>
       </c>
@@ -5280,7 +5322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>350</v>
       </c>
@@ -5288,7 +5330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>351</v>
       </c>
@@ -5296,7 +5338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>352</v>
       </c>
@@ -5304,7 +5346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>353</v>
       </c>
@@ -5312,12 +5354,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>354</v>
       </c>
       <c r="B9">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/coordinates_sample/区划编号.xlsx
+++ b/coordinates_sample/区划编号.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB054F6A-3695-B74A-9E2E-B423FF52C663}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113E42A2-1980-F147-B09C-DC4910CAFEBD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="480" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="397">
   <si>
     <t>刺史部</t>
   </si>
@@ -1264,319 +1264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>郡名;ID</t>
-  </si>
-  <si>
-    <t>京兆尹;101</t>
-  </si>
-  <si>
-    <t>左冯翊;102</t>
-  </si>
-  <si>
-    <t>右扶风;103</t>
-  </si>
-  <si>
-    <t>弘农郡;104</t>
-  </si>
-  <si>
-    <t>河东郡;105</t>
-  </si>
-  <si>
-    <t>河内郡;106</t>
-  </si>
-  <si>
-    <t>河南郡;107</t>
-  </si>
-  <si>
-    <t>颍川郡;201</t>
-  </si>
-  <si>
-    <t>汝南郡;202</t>
-  </si>
-  <si>
-    <t>沛郡;203</t>
-  </si>
-  <si>
-    <t>梁国;204</t>
-  </si>
-  <si>
-    <t>鲁国;205</t>
-  </si>
-  <si>
-    <t>魏郡;206</t>
-  </si>
-  <si>
-    <t>巨鹿郡;207</t>
-  </si>
-  <si>
-    <t>常山郡;208</t>
-  </si>
-  <si>
-    <t>清河郡;209</t>
-  </si>
-  <si>
-    <t>赵国;210</t>
-  </si>
-  <si>
-    <t>广平国;211</t>
-  </si>
-  <si>
-    <t>真定国;212</t>
-  </si>
-  <si>
-    <t>中山国;213</t>
-  </si>
-  <si>
-    <t>信都国;214</t>
-  </si>
-  <si>
-    <t>河间国;215</t>
-  </si>
-  <si>
-    <t>东郡;216</t>
-  </si>
-  <si>
-    <t>陈留郡;217</t>
-  </si>
-  <si>
-    <t>山阳郡;218</t>
-  </si>
-  <si>
-    <t>济阴郡;219</t>
-  </si>
-  <si>
-    <t>泰山郡;220</t>
-  </si>
-  <si>
-    <t>武都道;221</t>
-  </si>
-  <si>
-    <t>淮阳国;222</t>
-  </si>
-  <si>
-    <t>东平国;223</t>
-  </si>
-  <si>
-    <t>平原郡;224</t>
-  </si>
-  <si>
-    <t>千乘郡;225</t>
-  </si>
-  <si>
-    <t>济南郡;226</t>
-  </si>
-  <si>
-    <t>齐郡;227</t>
-  </si>
-  <si>
-    <t>北海郡;228</t>
-  </si>
-  <si>
-    <t>东莱郡;229</t>
-  </si>
-  <si>
-    <t>甾川国;230</t>
-  </si>
-  <si>
-    <t>胶东国;231</t>
-  </si>
-  <si>
-    <t>高密国;232</t>
-  </si>
-  <si>
-    <t>琅邪郡;233</t>
-  </si>
-  <si>
-    <t>东海郡;234</t>
-  </si>
-  <si>
-    <t>临淮郡;301</t>
-  </si>
-  <si>
-    <t>辽西郡;302</t>
-  </si>
-  <si>
-    <t>泗水国;303</t>
-  </si>
-  <si>
-    <t>广陵国;304</t>
-  </si>
-  <si>
-    <t>南阳郡;235</t>
-  </si>
-  <si>
-    <t>江夏郡;402</t>
-  </si>
-  <si>
-    <t>桂阳郡;403</t>
-  </si>
-  <si>
-    <t>武陵郡;404</t>
-  </si>
-  <si>
-    <t>零陵郡;405</t>
-  </si>
-  <si>
-    <t>长沙国;406</t>
-  </si>
-  <si>
-    <t>庐江郡;305</t>
-  </si>
-  <si>
-    <t>九江郡;306</t>
-  </si>
-  <si>
-    <t>会稽郡;307</t>
-  </si>
-  <si>
-    <t>丹扬郡;308</t>
-  </si>
-  <si>
-    <t>豫章郡;309</t>
-  </si>
-  <si>
-    <t>六安国;310</t>
-  </si>
-  <si>
-    <t>汉中郡;501</t>
-  </si>
-  <si>
-    <t>广汉郡;502</t>
-  </si>
-  <si>
-    <t>蜀郡;503</t>
-  </si>
-  <si>
-    <t>犍为郡;504</t>
-  </si>
-  <si>
-    <t>越巂郡;505</t>
-  </si>
-  <si>
-    <t>益州郡;506</t>
-  </si>
-  <si>
-    <t>牂柯郡;507</t>
-  </si>
-  <si>
-    <t>巴郡;508</t>
-  </si>
-  <si>
-    <t>武都郡;601</t>
-  </si>
-  <si>
-    <t>陇西郡;602</t>
-  </si>
-  <si>
-    <t>金城郡;603</t>
-  </si>
-  <si>
-    <t>天水郡;604</t>
-  </si>
-  <si>
-    <t>武威郡;605</t>
-  </si>
-  <si>
-    <t>张掖郡;606</t>
-  </si>
-  <si>
-    <t>酒泉郡;607</t>
-  </si>
-  <si>
-    <t>敦煌郡;608</t>
-  </si>
-  <si>
-    <t>安定郡;609</t>
-  </si>
-  <si>
-    <t>太原郡;701</t>
-  </si>
-  <si>
-    <t>上党郡;702</t>
-  </si>
-  <si>
-    <t>云中郡;703</t>
-  </si>
-  <si>
-    <t>定襄郡;704</t>
-  </si>
-  <si>
-    <t>雁门郡;705</t>
-  </si>
-  <si>
-    <t>代郡;706</t>
-  </si>
-  <si>
-    <t>北地郡;707</t>
-  </si>
-  <si>
-    <t>上郡;708</t>
-  </si>
-  <si>
-    <t>西河郡;709</t>
-  </si>
-  <si>
-    <t>朔方郡;710</t>
-  </si>
-  <si>
-    <t>五原郡;711</t>
-  </si>
-  <si>
-    <t>涿郡;712</t>
-  </si>
-  <si>
-    <t>勃海郡;713</t>
-  </si>
-  <si>
-    <t>上谷郡;714</t>
-  </si>
-  <si>
-    <t>渔阳郡;715</t>
-  </si>
-  <si>
-    <t>右北平郡;716</t>
-  </si>
-  <si>
-    <t>辽西郡;717</t>
-  </si>
-  <si>
-    <t>辽东郡;718</t>
-  </si>
-  <si>
-    <t>玄菟郡;719</t>
-  </si>
-  <si>
-    <t>乐浪郡;720</t>
-  </si>
-  <si>
-    <t>广阳国;721</t>
-  </si>
-  <si>
-    <t>南海郡;801</t>
-  </si>
-  <si>
-    <t>郁林郡;802</t>
-  </si>
-  <si>
-    <t>苍梧郡;803</t>
-  </si>
-  <si>
-    <t>交阯郡;804</t>
-  </si>
-  <si>
-    <t>合浦郡;805</t>
-  </si>
-  <si>
-    <t>九真郡;806</t>
-  </si>
-  <si>
-    <t>日南郡;807</t>
-  </si>
-  <si>
-    <t>南郡;401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全国</t>
     <rPh sb="0" eb="2">
       <t>quan'guo</t>
@@ -1584,8 +1271,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>京兆尹</t>
+  </si>
+  <si>
+    <t>左冯翊</t>
+  </si>
+  <si>
+    <t>右扶风</t>
+  </si>
+  <si>
+    <t>颍川郡</t>
+  </si>
+  <si>
+    <t>梁国</t>
+  </si>
+  <si>
+    <t>鲁国</t>
+  </si>
+  <si>
+    <t>常山郡</t>
+  </si>
+  <si>
+    <t>赵国</t>
+  </si>
+  <si>
+    <t>广平国</t>
+  </si>
+  <si>
+    <t>信都国</t>
+  </si>
+  <si>
+    <t>陈留郡</t>
+  </si>
+  <si>
+    <t>山阳郡</t>
+  </si>
+  <si>
+    <t>济阴郡</t>
+  </si>
+  <si>
+    <t>淮阳国</t>
+  </si>
+  <si>
+    <t>东平国</t>
+  </si>
+  <si>
+    <t>济南郡</t>
+  </si>
+  <si>
+    <t>高密国</t>
+  </si>
+  <si>
+    <t>南郡</t>
+  </si>
+  <si>
+    <t>会稽郡</t>
+  </si>
+  <si>
+    <t>丹扬郡</t>
   </si>
 </sst>
 </file>
@@ -4676,607 +4422,958 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B2">
+        <v>101</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B3">
+        <v>102</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B4">
+        <v>103</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>379</v>
+        <v>16</v>
       </c>
       <c r="B5">
+        <v>104</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>105</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B9">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B12">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B13">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="B16">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="B18">
+        <v>210</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="B19">
+        <v>211</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20">
+        <v>212</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21">
+        <v>213</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="B22">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="B25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="B26">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="B27">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B30">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B31">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
         <v>392</v>
       </c>
-      <c r="B18">
+      <c r="B34">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>393</v>
+      </c>
+      <c r="B40">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41">
+        <v>233</v>
+      </c>
+      <c r="C41">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>393</v>
-      </c>
-      <c r="B19">
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>256</v>
+      </c>
+      <c r="B44">
+        <v>236</v>
+      </c>
+      <c r="C44">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>259</v>
+      </c>
+      <c r="B45">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>306</v>
+      </c>
+      <c r="B47">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>187</v>
+      </c>
+      <c r="B51">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>395</v>
+      </c>
+      <c r="B52">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>396</v>
+      </c>
+      <c r="B53">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
         <v>394</v>
       </c>
-      <c r="B20">
+      <c r="B56">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60">
+        <v>405</v>
+      </c>
+      <c r="C60">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>395</v>
-      </c>
-      <c r="B21">
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>203</v>
+      </c>
+      <c r="B62">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>206</v>
+      </c>
+      <c r="B63">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>209</v>
+      </c>
+      <c r="B64">
+        <v>503</v>
+      </c>
+      <c r="C64">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>415</v>
-      </c>
-      <c r="B41">
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>212</v>
+      </c>
+      <c r="B65">
+        <v>504</v>
+      </c>
+      <c r="C65">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>425</v>
-      </c>
-      <c r="B52">
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>215</v>
+      </c>
+      <c r="B66">
+        <v>505</v>
+      </c>
+      <c r="C66">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>435</v>
-      </c>
-      <c r="B62">
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>218</v>
+      </c>
+      <c r="B67">
+        <v>506</v>
+      </c>
+      <c r="C67">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>436</v>
-      </c>
-      <c r="B63">
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>221</v>
+      </c>
+      <c r="B68">
+        <v>507</v>
+      </c>
+      <c r="C68">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>437</v>
-      </c>
-      <c r="B64">
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>224</v>
+      </c>
+      <c r="B69">
+        <v>508</v>
+      </c>
+      <c r="C69">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>438</v>
-      </c>
-      <c r="B65">
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>227</v>
+      </c>
+      <c r="B70">
+        <v>601</v>
+      </c>
+      <c r="C70">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>439</v>
-      </c>
-      <c r="B66">
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>231</v>
+      </c>
+      <c r="B71">
+        <v>602</v>
+      </c>
+      <c r="C71">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>440</v>
-      </c>
-      <c r="B67">
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>234</v>
+      </c>
+      <c r="B72">
+        <v>603</v>
+      </c>
+      <c r="C72">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>441</v>
-      </c>
-      <c r="B68">
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>237</v>
+      </c>
+      <c r="B73">
+        <v>604</v>
+      </c>
+      <c r="C73">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>442</v>
-      </c>
-      <c r="B69">
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>240</v>
+      </c>
+      <c r="B74">
+        <v>605</v>
+      </c>
+      <c r="C74">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>443</v>
-      </c>
-      <c r="B70">
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>243</v>
+      </c>
+      <c r="B75">
+        <v>606</v>
+      </c>
+      <c r="C75">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>444</v>
-      </c>
-      <c r="B71">
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>246</v>
+      </c>
+      <c r="B76">
+        <v>607</v>
+      </c>
+      <c r="C76">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>445</v>
-      </c>
-      <c r="B72">
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>249</v>
+      </c>
+      <c r="B77">
+        <v>608</v>
+      </c>
+      <c r="C77">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>446</v>
-      </c>
-      <c r="B73">
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>252</v>
+      </c>
+      <c r="B78">
+        <v>609</v>
+      </c>
+      <c r="C78">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>448</v>
-      </c>
-      <c r="B75">
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>262</v>
+      </c>
+      <c r="B79">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>265</v>
+      </c>
+      <c r="B80">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>268</v>
+      </c>
+      <c r="B81">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>271</v>
+      </c>
+      <c r="B82">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>275</v>
+      </c>
+      <c r="B83">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>278</v>
+      </c>
+      <c r="B84">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>281</v>
+      </c>
+      <c r="B85">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>284</v>
+      </c>
+      <c r="B86">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>287</v>
+      </c>
+      <c r="B87">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>291</v>
+      </c>
+      <c r="B88">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>294</v>
+      </c>
+      <c r="B89">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>297</v>
+      </c>
+      <c r="B90">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>300</v>
+      </c>
+      <c r="B91">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>303</v>
+      </c>
+      <c r="B92">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>306</v>
+      </c>
+      <c r="B93">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>309</v>
+      </c>
+      <c r="B94">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>312</v>
+      </c>
+      <c r="B95">
+        <v>719</v>
+      </c>
+      <c r="C95">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>468</v>
-      </c>
-      <c r="B95" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
+        <v>315</v>
+      </c>
+      <c r="B96">
+        <v>720</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
+        <v>319</v>
+      </c>
+      <c r="B97">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
+        <v>323</v>
+      </c>
+      <c r="B98">
+        <v>801</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
+        <v>326</v>
+      </c>
+      <c r="B99">
+        <v>802</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
+        <v>329</v>
+      </c>
+      <c r="B100">
+        <v>803</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
+        <v>332</v>
+      </c>
+      <c r="B101">
+        <v>804</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
+        <v>335</v>
+      </c>
+      <c r="B102">
+        <v>805</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
+        <v>338</v>
+      </c>
+      <c r="B103">
+        <v>806</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>477</v>
+        <v>341</v>
+      </c>
+      <c r="B104">
+        <v>807</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C104">
+    <sortCondition ref="B78"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5364,7 +5461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>479</v>
+        <v>375</v>
       </c>
       <c r="B10">
         <v>0</v>

--- a/coordinates_sample/区划编号.xlsx
+++ b/coordinates_sample/区划编号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113E42A2-1980-F147-B09C-DC4910CAFEBD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC49B57F-8559-2C49-A95D-18D3D68B6444}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4424,8 +4424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5142,6 +5142,9 @@
       <c r="B79">
         <v>701</v>
       </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
@@ -5150,6 +5153,9 @@
       <c r="B80">
         <v>702</v>
       </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
@@ -5268,7 +5274,7 @@
         <v>312</v>
       </c>
       <c r="B95">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -5279,7 +5285,7 @@
         <v>315</v>
       </c>
       <c r="B96">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -5290,7 +5296,7 @@
         <v>319</v>
       </c>
       <c r="B97">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="98" spans="1:3">

--- a/coordinates_sample/区划编号.xlsx
+++ b/coordinates_sample/区划编号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC49B57F-8559-2C49-A95D-18D3D68B6444}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9762D7A8-8022-DA40-9111-DC9B19FE9937}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4424,8 +4424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5164,6 +5164,9 @@
       <c r="B81">
         <v>703</v>
       </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
@@ -5171,6 +5174,9 @@
       </c>
       <c r="B82">
         <v>704</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">

--- a/coordinates_sample/区划编号.xlsx
+++ b/coordinates_sample/区划编号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9762D7A8-8022-DA40-9111-DC9B19FE9937}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C804AF37-7510-1342-9AFC-10B64697C9B9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4424,8 +4424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4961,6 +4961,9 @@
       <c r="B62">
         <v>501</v>
       </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
@@ -4969,6 +4972,9 @@
       <c r="B63">
         <v>502</v>
       </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
@@ -5186,6 +5192,9 @@
       <c r="B83">
         <v>705</v>
       </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
@@ -5194,6 +5203,9 @@
       <c r="B84">
         <v>706</v>
       </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
@@ -5201,6 +5213,9 @@
       </c>
       <c r="B85">
         <v>707</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">

--- a/coordinates_sample/区划编号.xlsx
+++ b/coordinates_sample/区划编号.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C804AF37-7510-1342-9AFC-10B64697C9B9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3E1759-9093-3245-9634-5FCC0890FFC3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -4424,8 +4424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView topLeftCell="A88" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5411,7 +5411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/coordinates_sample/区划编号.xlsx
+++ b/coordinates_sample/区划编号.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3E1759-9093-3245-9634-5FCC0890FFC3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEDED65-E7F7-9541-A445-460F46796BCC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -4424,8 +4424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4500,6 +4500,9 @@
       <c r="B7">
         <v>106</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
@@ -4821,6 +4824,9 @@
       </c>
       <c r="B45">
         <v>237</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -5411,7 +5417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/coordinates_sample/区划编号.xlsx
+++ b/coordinates_sample/区划编号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEDED65-E7F7-9541-A445-460F46796BCC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCBD876-212B-5D4D-B089-57A2374FD330}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4425,7 +4425,7 @@
   <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4510,6 +4510,9 @@
       </c>
       <c r="B8">
         <v>107</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">

--- a/coordinates_sample/区划编号.xlsx
+++ b/coordinates_sample/区划编号.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCBD876-212B-5D4D-B089-57A2374FD330}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838FFF79-AA73-3843-99D1-2E602E406E7C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="1420" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -4424,8 +4424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4522,6 +4522,9 @@
       <c r="B9">
         <v>201</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
@@ -4530,6 +4533,9 @@
       <c r="B10">
         <v>202</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
@@ -4654,6 +4660,9 @@
       <c r="B24">
         <v>216</v>
       </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
@@ -4661,6 +4670,9 @@
       </c>
       <c r="B25">
         <v>217</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">

--- a/coordinates_sample/区划编号.xlsx
+++ b/coordinates_sample/区划编号.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838FFF79-AA73-3843-99D1-2E602E406E7C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6433AE1C-C111-7B48-840F-846F413BF5EA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="1420" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -4425,7 +4425,7 @@
   <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4543,6 +4543,9 @@
       </c>
       <c r="B11">
         <v>203</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">

--- a/coordinates_sample/区划编号.xlsx
+++ b/coordinates_sample/区划编号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6433AE1C-C111-7B48-840F-846F413BF5EA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2469937C-9E38-A34F-B872-2846DD42AEF4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="397">
   <si>
     <t>刺史部</t>
   </si>
@@ -4422,10 +4422,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4816,6 +4816,9 @@
       <c r="B42">
         <v>234</v>
       </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
@@ -4824,6 +4827,9 @@
       <c r="B43">
         <v>235</v>
       </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
@@ -4854,10 +4860,13 @@
       <c r="B46">
         <v>301</v>
       </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>306</v>
+        <v>153</v>
       </c>
       <c r="B47">
         <v>302</v>
@@ -4865,7 +4874,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B48">
         <v>303</v>
@@ -4873,7 +4882,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="B49">
         <v>304</v>
@@ -4881,7 +4890,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B50">
         <v>305</v>
@@ -4889,7 +4898,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>187</v>
+        <v>395</v>
       </c>
       <c r="B51">
         <v>306</v>
@@ -4897,23 +4906,29 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B52">
         <v>307</v>
       </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>396</v>
+        <v>196</v>
       </c>
       <c r="B53">
         <v>308</v>
       </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B54">
         <v>309</v>
@@ -4921,69 +4936,72 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>199</v>
+        <v>394</v>
       </c>
       <c r="B55">
-        <v>310</v>
+        <v>401</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>394</v>
+        <v>166</v>
       </c>
       <c r="B56">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B57">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B58">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B59">
-        <v>404</v>
+        <v>405</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B60">
-        <v>405</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
+        <v>406</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="B61">
-        <v>406</v>
+        <v>501</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B62">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4991,10 +5009,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B63">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -5002,10 +5020,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B64">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -5013,10 +5031,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B65">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -5024,10 +5042,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B66">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -5035,10 +5053,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B67">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -5046,10 +5064,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B68">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -5057,10 +5075,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B69">
-        <v>508</v>
+        <v>601</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -5068,10 +5086,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B70">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -5079,10 +5097,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B71">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -5090,10 +5108,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B72">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -5101,10 +5119,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B73">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -5112,10 +5130,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B74">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -5123,10 +5141,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B75">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -5134,10 +5152,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B76">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -5145,10 +5163,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B77">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -5156,10 +5174,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B78">
-        <v>609</v>
+        <v>701</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -5167,10 +5185,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B79">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -5178,10 +5196,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B80">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -5189,10 +5207,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B81">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -5200,10 +5218,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B82">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -5211,10 +5229,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B83">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -5222,10 +5240,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B84">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -5233,93 +5251,93 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B85">
-        <v>707</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
+        <v>708</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B86">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B87">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B88">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B89">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B90">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B91">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B92">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B93">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B94">
-        <v>716</v>
+        <v>717</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B95">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -5327,29 +5345,29 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B96">
-        <v>718</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
+        <v>719</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B97">
-        <v>719</v>
+        <v>801</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B98">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -5357,10 +5375,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B99">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -5368,10 +5386,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B100">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -5379,10 +5397,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B101">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -5390,10 +5408,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B102">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -5401,29 +5419,18 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B103">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>341</v>
-      </c>
-      <c r="B104">
-        <v>807</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:C104">
-    <sortCondition ref="B78"/>
+  <sortState ref="A2:C103">
+    <sortCondition ref="B77"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/coordinates_sample/区划编号.xlsx
+++ b/coordinates_sample/区划编号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2469937C-9E38-A34F-B872-2846DD42AEF4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DAFF0E-CB55-5B41-B9D2-1D580E5B3C34}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4425,7 +4425,7 @@
   <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4886,6 +4886,9 @@
       </c>
       <c r="B49">
         <v>304</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">

--- a/coordinates_sample/区划编号.xlsx
+++ b/coordinates_sample/区划编号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DAFF0E-CB55-5B41-B9D2-1D580E5B3C34}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980E7ABB-3052-6B4A-B3E2-AC8D971F07FD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1342,7 +1342,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1373,6 +1373,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1400,7 +1408,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1408,6 +1416,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4424,1010 +4433,1066 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="77" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" ht="19">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" ht="19">
+      <c r="A2" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>101</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19">
+      <c r="A3" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>102</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19">
+      <c r="A4" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>103</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>104</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>105</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19">
+      <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>106</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19">
+      <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>107</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19">
+      <c r="A9" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>201</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19">
+      <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>202</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19">
+      <c r="A11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>203</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19">
+      <c r="A12" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>204</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" ht="19">
+      <c r="A13" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>205</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" ht="19">
+      <c r="A14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>206</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" ht="19">
+      <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>207</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" ht="19">
+      <c r="A16" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>208</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" ht="19">
+      <c r="A17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>209</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" ht="19">
+      <c r="A18" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>210</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="19">
+      <c r="A19" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>211</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="19">
+      <c r="A20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>212</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="19">
+      <c r="A21" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>213</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="19">
+      <c r="A22" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>214</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" ht="19">
+      <c r="A23" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>215</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" ht="19">
+      <c r="A24" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>216</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="19">
+      <c r="A25" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <v>217</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="19">
+      <c r="A26" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>218</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="19">
+      <c r="A27" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="5">
         <v>219</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3" ht="19">
+      <c r="A28" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="5">
         <v>220</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:3" ht="19">
+      <c r="A29" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="5">
         <v>221</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" ht="19">
+      <c r="A30" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="5">
         <v>222</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:3" ht="19">
+      <c r="A31" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="5">
         <v>223</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:3" ht="19">
+      <c r="A32" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="5">
         <v>224</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:3" ht="19">
+      <c r="A33" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="5">
         <v>225</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:3" ht="19">
+      <c r="A34" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="5">
         <v>226</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" ht="19">
+      <c r="A35" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="5">
         <v>227</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3" ht="19">
+      <c r="A36" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="5">
         <v>228</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:3" ht="19">
+      <c r="A37" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="5">
         <v>229</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="1:3" ht="19">
+      <c r="A38" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5">
         <v>230</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:3" ht="19">
+      <c r="A39" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="5">
         <v>231</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="1:3" ht="19">
+      <c r="A40" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="5">
         <v>232</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:3" ht="19">
+      <c r="A41" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="5">
         <v>233</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="19">
+      <c r="A42" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="5">
         <v>234</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
+      <c r="C42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="19">
+      <c r="A43" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="5">
         <v>235</v>
       </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="19">
+      <c r="A44" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="5">
         <v>236</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
+      <c r="C44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="19">
+      <c r="A45" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="5">
         <v>237</v>
       </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
+      <c r="C45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="19">
+      <c r="A46" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="5">
         <v>301</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
+      <c r="C46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="19">
+      <c r="A47" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="5">
         <v>302</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
+      <c r="C47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="19">
+      <c r="A48" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="5">
         <v>303</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="19">
+      <c r="A49" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="5">
         <v>304</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="19">
+      <c r="A50" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="5">
         <v>305</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="19">
+      <c r="A51" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="5">
         <v>306</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="19">
+      <c r="A52" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="5">
         <v>307</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
+      <c r="C52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="19">
+      <c r="A53" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="5">
         <v>308</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="19">
+      <c r="A54" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="5">
         <v>309</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
+      <c r="C54" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="19">
+      <c r="A55" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="5">
         <v>401</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56" spans="1:3" ht="19">
+      <c r="A56" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="5">
         <v>402</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
+      <c r="C56" s="5"/>
+    </row>
+    <row r="57" spans="1:3" ht="19">
+      <c r="A57" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="5">
         <v>403</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58" spans="1:3" ht="19">
+      <c r="A58" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="5">
         <v>404</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
+      <c r="C58" s="5"/>
+    </row>
+    <row r="59" spans="1:3" ht="19">
+      <c r="A59" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="5">
         <v>405</v>
       </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
+      <c r="C59" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="19">
+      <c r="A60" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="5">
         <v>406</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="1:3" ht="19">
+      <c r="A61" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="5">
         <v>501</v>
       </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
+      <c r="C61" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="19">
+      <c r="A62" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="5">
         <v>502</v>
       </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
+      <c r="C62" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="19">
+      <c r="A63" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="5">
         <v>503</v>
       </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+      <c r="C63" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="19">
+      <c r="A64" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="5">
         <v>504</v>
       </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+      <c r="C64" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="19">
+      <c r="A65" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="5">
         <v>505</v>
       </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
+      <c r="C65" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="19">
+      <c r="A66" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="5">
         <v>506</v>
       </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
+      <c r="C66" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="19">
+      <c r="A67" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="5">
         <v>507</v>
       </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
+      <c r="C67" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="19">
+      <c r="A68" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="5">
         <v>508</v>
       </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
+      <c r="C68" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="19">
+      <c r="A69" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="5">
         <v>601</v>
       </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
+      <c r="C69" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="19">
+      <c r="A70" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="5">
         <v>602</v>
       </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
+      <c r="C70" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="19">
+      <c r="A71" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="5">
         <v>603</v>
       </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
+      <c r="C71" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="19">
+      <c r="A72" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="5">
         <v>604</v>
       </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
+      <c r="C72" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="19">
+      <c r="A73" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="5">
         <v>605</v>
       </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
+      <c r="C73" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="19">
+      <c r="A74" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="5">
         <v>606</v>
       </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
+      <c r="C74" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="19">
+      <c r="A75" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="5">
         <v>607</v>
       </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
+      <c r="C75" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="19">
+      <c r="A76" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="5">
         <v>608</v>
       </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
+      <c r="C76" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="19">
+      <c r="A77" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="5">
         <v>609</v>
       </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
+      <c r="C77" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="19">
+      <c r="A78" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="5">
         <v>701</v>
       </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
+      <c r="C78" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="19">
+      <c r="A79" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="5">
         <v>702</v>
       </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
+      <c r="C79" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="19">
+      <c r="A80" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="5">
         <v>703</v>
       </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
+      <c r="C80" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="19">
+      <c r="A81" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="5">
         <v>704</v>
       </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
+      <c r="C81" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="19">
+      <c r="A82" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="5">
         <v>705</v>
       </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
+      <c r="C82" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="19">
+      <c r="A83" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="5">
         <v>706</v>
       </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
+      <c r="C83" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="19">
+      <c r="A84" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="5">
         <v>707</v>
       </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
+      <c r="C84" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="19">
+      <c r="A85" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="5">
         <v>708</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
+      <c r="C85" s="5"/>
+    </row>
+    <row r="86" spans="1:3" ht="19">
+      <c r="A86" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="5">
         <v>709</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
+      <c r="C86" s="5"/>
+    </row>
+    <row r="87" spans="1:3" ht="19">
+      <c r="A87" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="5">
         <v>710</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
+      <c r="C87" s="5"/>
+    </row>
+    <row r="88" spans="1:3" ht="19">
+      <c r="A88" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="5">
         <v>711</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
+      <c r="C88" s="5"/>
+    </row>
+    <row r="89" spans="1:3" ht="19">
+      <c r="A89" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="5">
         <v>712</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
+      <c r="C89" s="5"/>
+    </row>
+    <row r="90" spans="1:3" ht="19">
+      <c r="A90" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="5">
         <v>713</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
+      <c r="C90" s="5"/>
+    </row>
+    <row r="91" spans="1:3" ht="19">
+      <c r="A91" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="5">
         <v>714</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
+      <c r="C91" s="5"/>
+    </row>
+    <row r="92" spans="1:3" ht="19">
+      <c r="A92" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="5">
         <v>715</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
+      <c r="C92" s="5"/>
+    </row>
+    <row r="93" spans="1:3" ht="19">
+      <c r="A93" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="5">
         <v>716</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
+      <c r="C93" s="5"/>
+    </row>
+    <row r="94" spans="1:3" ht="19">
+      <c r="A94" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="5">
         <v>717</v>
       </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
+      <c r="C94" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="19">
+      <c r="A95" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="5">
         <v>718</v>
       </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
+      <c r="C95" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="19">
+      <c r="A96" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="5">
         <v>719</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
+      <c r="C96" s="5"/>
+    </row>
+    <row r="97" spans="1:3" ht="19">
+      <c r="A97" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="5">
         <v>801</v>
       </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
+      <c r="C97" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="19">
+      <c r="A98" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="5">
         <v>802</v>
       </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
+      <c r="C98" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="19">
+      <c r="A99" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="5">
         <v>803</v>
       </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
+      <c r="C99" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="19">
+      <c r="A100" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="5">
         <v>804</v>
       </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
+      <c r="C100" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="19">
+      <c r="A101" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="5">
         <v>805</v>
       </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
+      <c r="C101" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="19">
+      <c r="A102" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="5">
         <v>806</v>
       </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
+      <c r="C102" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="19">
+      <c r="A103" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="5">
         <v>807</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="5">
         <v>1</v>
       </c>
     </row>

--- a/coordinates_sample/区划编号.xlsx
+++ b/coordinates_sample/区划编号.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980E7ABB-3052-6B4A-B3E2-AC8D971F07FD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245DF602-BFA1-844B-A70C-465C6E30A882}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="480" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="划分依据" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -4433,8 +4434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="77" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4592,7 +4593,9 @@
       <c r="B15" s="5">
         <v>207</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="19">
       <c r="A16" s="5" t="s">
@@ -4601,7 +4604,9 @@
       <c r="B16" s="5">
         <v>208</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="19">
       <c r="A17" s="5" t="s">
@@ -4822,7 +4827,9 @@
       <c r="B39" s="5">
         <v>231</v>
       </c>
-      <c r="C39" s="5"/>
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="19">
       <c r="A40" s="5" t="s">
@@ -4831,7 +4838,9 @@
       <c r="B40" s="5">
         <v>232</v>
       </c>
-      <c r="C40" s="5"/>
+      <c r="C40" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="19">
       <c r="A41" s="5" t="s">
@@ -5314,7 +5323,9 @@
       <c r="B85" s="5">
         <v>708</v>
       </c>
-      <c r="C85" s="5"/>
+      <c r="C85" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:3" ht="19">
       <c r="A86" s="5" t="s">

--- a/coordinates_sample/区划编号.xlsx
+++ b/coordinates_sample/区划编号.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/汉书-地理志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245DF602-BFA1-844B-A70C-465C6E30A882}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A86319-AC84-8C48-A6BC-AB2007779DE3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="480" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="划分依据" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -4435,7 +4434,7 @@
   <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4615,7 +4614,9 @@
       <c r="B17" s="5">
         <v>209</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="19">
       <c r="A18" s="5" t="s">

--- a/coordinates_sample/区划编号.xlsx
+++ b/coordinates_sample/区划编号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/汉书-地理志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A86319-AC84-8C48-A6BC-AB2007779DE3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94A0FA6-81C3-BE46-ABEE-CA346F00984A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4434,7 +4434,7 @@
   <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4565,7 +4565,9 @@
       <c r="B12" s="5">
         <v>204</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="19">
       <c r="A13" s="5" t="s">

--- a/coordinates_sample/区划编号.xlsx
+++ b/coordinates_sample/区划编号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/汉书-地理志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94A0FA6-81C3-BE46-ABEE-CA346F00984A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC086D40-CCC1-7448-9B8B-D3331703AF01}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4434,7 +4434,7 @@
   <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4576,7 +4576,9 @@
       <c r="B13" s="5">
         <v>205</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="19">
       <c r="A14" s="5" t="s">
@@ -4585,7 +4587,9 @@
       <c r="B14" s="5">
         <v>206</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="19">
       <c r="A15" s="5" t="s">

--- a/coordinates_sample/区划编号.xlsx
+++ b/coordinates_sample/区划编号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/汉书-地理志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC086D40-CCC1-7448-9B8B-D3331703AF01}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C6181E-4DDD-0841-B4AA-2BE29ECDB6DA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4433,8 +4433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="77" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5010,7 +5010,9 @@
       <c r="B55" s="5">
         <v>401</v>
       </c>
-      <c r="C55" s="5"/>
+      <c r="C55" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:3" ht="19">
       <c r="A56" s="5" t="s">
@@ -5019,7 +5021,9 @@
       <c r="B56" s="5">
         <v>402</v>
       </c>
-      <c r="C56" s="5"/>
+      <c r="C56" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:3" ht="19">
       <c r="A57" s="5" t="s">

--- a/coordinates_sample/区划编号.xlsx
+++ b/coordinates_sample/区划编号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/汉书-地理志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C6181E-4DDD-0841-B4AA-2BE29ECDB6DA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB02E93E-D3DD-674A-BDDC-F451F6B23E59}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4433,8 +4433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="77" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="77" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5032,7 +5032,9 @@
       <c r="B57" s="5">
         <v>403</v>
       </c>
-      <c r="C57" s="5"/>
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:3" ht="19">
       <c r="A58" s="5" t="s">

--- a/coordinates_sample/区划编号.xlsx
+++ b/coordinates_sample/区划编号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/汉书-地理志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB02E93E-D3DD-674A-BDDC-F451F6B23E59}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CBE052-5E04-6045-ADE6-252E6AA91B03}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4433,8 +4433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="77" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="77" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4675,7 +4675,9 @@
       <c r="B22" s="5">
         <v>214</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="19">
       <c r="A23" s="5" t="s">
@@ -4684,7 +4686,9 @@
       <c r="B23" s="5">
         <v>215</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="19">
       <c r="A24" s="5" t="s">
@@ -4825,7 +4829,9 @@
       <c r="B38" s="5">
         <v>230</v>
       </c>
-      <c r="C38" s="5"/>
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="19">
       <c r="A39" s="5" t="s">
@@ -4906,10 +4912,10 @@
     </row>
     <row r="46" spans="1:3" ht="19">
       <c r="A46" s="5" t="s">
-        <v>146</v>
+        <v>291</v>
       </c>
       <c r="B46" s="5">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="C46" s="5">
         <v>1</v>
@@ -4917,10 +4923,10 @@
     </row>
     <row r="47" spans="1:3" ht="19">
       <c r="A47" s="5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B47" s="5">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C47" s="5">
         <v>1</v>
@@ -4928,10 +4934,10 @@
     </row>
     <row r="48" spans="1:3" ht="19">
       <c r="A48" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B48" s="5">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C48" s="5">
         <v>1</v>
@@ -4939,10 +4945,10 @@
     </row>
     <row r="49" spans="1:3" ht="19">
       <c r="A49" s="5" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="B49" s="5">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C49" s="5">
         <v>1</v>
@@ -4950,10 +4956,10 @@
     </row>
     <row r="50" spans="1:3" ht="19">
       <c r="A50" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B50" s="5">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C50" s="5">
         <v>1</v>
@@ -4961,10 +4967,10 @@
     </row>
     <row r="51" spans="1:3" ht="19">
       <c r="A51" s="5" t="s">
-        <v>395</v>
+        <v>187</v>
       </c>
       <c r="B51" s="5">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C51" s="5">
         <v>1</v>
@@ -4972,10 +4978,10 @@
     </row>
     <row r="52" spans="1:3" ht="19">
       <c r="A52" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B52" s="5">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C52" s="5">
         <v>1</v>
@@ -4983,10 +4989,10 @@
     </row>
     <row r="53" spans="1:3" ht="19">
       <c r="A53" s="5" t="s">
-        <v>196</v>
+        <v>396</v>
       </c>
       <c r="B53" s="5">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C53" s="5">
         <v>1</v>
@@ -4994,10 +5000,10 @@
     </row>
     <row r="54" spans="1:3" ht="19">
       <c r="A54" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B54" s="5">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -5005,10 +5011,10 @@
     </row>
     <row r="55" spans="1:3" ht="19">
       <c r="A55" s="5" t="s">
-        <v>394</v>
+        <v>199</v>
       </c>
       <c r="B55" s="5">
-        <v>401</v>
+        <v>309</v>
       </c>
       <c r="C55" s="5">
         <v>1</v>
@@ -5016,10 +5022,10 @@
     </row>
     <row r="56" spans="1:3" ht="19">
       <c r="A56" s="5" t="s">
-        <v>166</v>
+        <v>394</v>
       </c>
       <c r="B56" s="5">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C56" s="5">
         <v>1</v>
@@ -5027,10 +5033,10 @@
     </row>
     <row r="57" spans="1:3" ht="19">
       <c r="A57" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B57" s="5">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C57" s="5">
         <v>1</v>
@@ -5038,19 +5044,21 @@
     </row>
     <row r="58" spans="1:3" ht="19">
       <c r="A58" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B58" s="5">
-        <v>404</v>
-      </c>
-      <c r="C58" s="5"/>
+        <v>403</v>
+      </c>
+      <c r="C58" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:3" ht="19">
       <c r="A59" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B59" s="5">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C59" s="5">
         <v>1</v>
@@ -5058,19 +5066,21 @@
     </row>
     <row r="60" spans="1:3" ht="19">
       <c r="A60" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B60" s="5">
-        <v>406</v>
-      </c>
-      <c r="C60" s="5"/>
+        <v>405</v>
+      </c>
+      <c r="C60" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:3" ht="19">
       <c r="A61" s="5" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="B61" s="5">
-        <v>501</v>
+        <v>406</v>
       </c>
       <c r="C61" s="5">
         <v>1</v>
@@ -5078,10 +5088,10 @@
     </row>
     <row r="62" spans="1:3" ht="19">
       <c r="A62" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B62" s="5">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C62" s="5">
         <v>1</v>
@@ -5089,10 +5099,10 @@
     </row>
     <row r="63" spans="1:3" ht="19">
       <c r="A63" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B63" s="5">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C63" s="5">
         <v>1</v>
@@ -5100,10 +5110,10 @@
     </row>
     <row r="64" spans="1:3" ht="19">
       <c r="A64" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B64" s="5">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C64" s="5">
         <v>1</v>
@@ -5111,10 +5121,10 @@
     </row>
     <row r="65" spans="1:3" ht="19">
       <c r="A65" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B65" s="5">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C65" s="5">
         <v>1</v>
@@ -5122,10 +5132,10 @@
     </row>
     <row r="66" spans="1:3" ht="19">
       <c r="A66" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B66" s="5">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C66" s="5">
         <v>1</v>
@@ -5133,10 +5143,10 @@
     </row>
     <row r="67" spans="1:3" ht="19">
       <c r="A67" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B67" s="5">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C67" s="5">
         <v>1</v>
@@ -5144,10 +5154,10 @@
     </row>
     <row r="68" spans="1:3" ht="19">
       <c r="A68" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B68" s="5">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C68" s="5">
         <v>1</v>
@@ -5155,10 +5165,10 @@
     </row>
     <row r="69" spans="1:3" ht="19">
       <c r="A69" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B69" s="5">
-        <v>601</v>
+        <v>508</v>
       </c>
       <c r="C69" s="5">
         <v>1</v>
@@ -5166,10 +5176,10 @@
     </row>
     <row r="70" spans="1:3" ht="19">
       <c r="A70" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B70" s="5">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C70" s="5">
         <v>1</v>
@@ -5177,10 +5187,10 @@
     </row>
     <row r="71" spans="1:3" ht="19">
       <c r="A71" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B71" s="5">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C71" s="5">
         <v>1</v>
@@ -5188,10 +5198,10 @@
     </row>
     <row r="72" spans="1:3" ht="19">
       <c r="A72" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B72" s="5">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C72" s="5">
         <v>1</v>
@@ -5199,10 +5209,10 @@
     </row>
     <row r="73" spans="1:3" ht="19">
       <c r="A73" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B73" s="5">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C73" s="5">
         <v>1</v>
@@ -5210,10 +5220,10 @@
     </row>
     <row r="74" spans="1:3" ht="19">
       <c r="A74" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B74" s="5">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C74" s="5">
         <v>1</v>
@@ -5221,10 +5231,10 @@
     </row>
     <row r="75" spans="1:3" ht="19">
       <c r="A75" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B75" s="5">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C75" s="5">
         <v>1</v>
@@ -5232,10 +5242,10 @@
     </row>
     <row r="76" spans="1:3" ht="19">
       <c r="A76" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B76" s="5">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C76" s="5">
         <v>1</v>
@@ -5243,10 +5253,10 @@
     </row>
     <row r="77" spans="1:3" ht="19">
       <c r="A77" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B77" s="5">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C77" s="5">
         <v>1</v>
@@ -5254,10 +5264,10 @@
     </row>
     <row r="78" spans="1:3" ht="19">
       <c r="A78" s="5" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B78" s="5">
-        <v>701</v>
+        <v>609</v>
       </c>
       <c r="C78" s="5">
         <v>1</v>
@@ -5265,10 +5275,10 @@
     </row>
     <row r="79" spans="1:3" ht="19">
       <c r="A79" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B79" s="5">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C79" s="5">
         <v>1</v>
@@ -5276,10 +5286,10 @@
     </row>
     <row r="80" spans="1:3" ht="19">
       <c r="A80" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B80" s="5">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C80" s="5">
         <v>1</v>
@@ -5287,10 +5297,10 @@
     </row>
     <row r="81" spans="1:3" ht="19">
       <c r="A81" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B81" s="5">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C81" s="5">
         <v>1</v>
@@ -5298,10 +5308,10 @@
     </row>
     <row r="82" spans="1:3" ht="19">
       <c r="A82" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B82" s="5">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C82" s="5">
         <v>1</v>
@@ -5309,10 +5319,10 @@
     </row>
     <row r="83" spans="1:3" ht="19">
       <c r="A83" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B83" s="5">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C83" s="5">
         <v>1</v>
@@ -5320,10 +5330,10 @@
     </row>
     <row r="84" spans="1:3" ht="19">
       <c r="A84" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B84" s="5">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C84" s="5">
         <v>1</v>
@@ -5331,10 +5341,10 @@
     </row>
     <row r="85" spans="1:3" ht="19">
       <c r="A85" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B85" s="5">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C85" s="5">
         <v>1</v>
@@ -5342,21 +5352,25 @@
     </row>
     <row r="86" spans="1:3" ht="19">
       <c r="A86" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B86" s="5">
-        <v>709</v>
-      </c>
-      <c r="C86" s="5"/>
+        <v>708</v>
+      </c>
+      <c r="C86" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:3" ht="19">
       <c r="A87" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B87" s="5">
-        <v>710</v>
-      </c>
-      <c r="C87" s="5"/>
+        <v>709</v>
+      </c>
+      <c r="C87" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:3" ht="19">
       <c r="A88" s="5" t="s">
@@ -5365,7 +5379,9 @@
       <c r="B88" s="5">
         <v>711</v>
       </c>
-      <c r="C88" s="5"/>
+      <c r="C88" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="1:3" ht="19">
       <c r="A89" s="5" t="s">
@@ -5522,7 +5538,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:C103">
-    <sortCondition ref="B77"/>
+    <sortCondition ref="B78"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/coordinates_sample/区划编号.xlsx
+++ b/coordinates_sample/区划编号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/汉书-地理志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CBE052-5E04-6045-ADE6-252E6AA91B03}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE63F23E-6161-A343-9A62-8C8BD9274CD4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="397">
   <si>
     <t>刺史部</t>
   </si>
@@ -4431,10 +4431,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="77" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="77" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4730,7 +4730,9 @@
       <c r="B27" s="5">
         <v>219</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="19">
       <c r="A28" s="5" t="s">
@@ -4739,95 +4741,115 @@
       <c r="B28" s="5">
         <v>220</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="19">
       <c r="A29" s="5" t="s">
-        <v>228</v>
+        <v>390</v>
       </c>
       <c r="B29" s="5">
-        <v>221</v>
-      </c>
-      <c r="C29" s="5"/>
+        <v>222</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="19">
       <c r="A30" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B30" s="5">
-        <v>222</v>
-      </c>
-      <c r="C30" s="5"/>
+        <v>223</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="19">
       <c r="A31" s="5" t="s">
-        <v>391</v>
+        <v>109</v>
       </c>
       <c r="B31" s="5">
-        <v>223</v>
-      </c>
-      <c r="C31" s="5"/>
+        <v>224</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="19">
       <c r="A32" s="5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B32" s="5">
-        <v>224</v>
-      </c>
-      <c r="C32" s="5"/>
+        <v>225</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="19">
       <c r="A33" s="5" t="s">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="B33" s="5">
-        <v>225</v>
-      </c>
-      <c r="C33" s="5"/>
+        <v>226</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:3" ht="19">
       <c r="A34" s="5" t="s">
-        <v>392</v>
+        <v>120</v>
       </c>
       <c r="B34" s="5">
-        <v>226</v>
-      </c>
-      <c r="C34" s="5"/>
+        <v>227</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="19">
       <c r="A35" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B35" s="5">
-        <v>227</v>
-      </c>
-      <c r="C35" s="5"/>
+        <v>228</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:3" ht="19">
       <c r="A36" s="5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B36" s="5">
-        <v>228</v>
-      </c>
-      <c r="C36" s="5"/>
+        <v>229</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="19">
       <c r="A37" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B37" s="5">
-        <v>229</v>
-      </c>
-      <c r="C37" s="5"/>
+        <v>230</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:3" ht="19">
       <c r="A38" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B38" s="5">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -4835,10 +4857,10 @@
     </row>
     <row r="39" spans="1:3" ht="19">
       <c r="A39" s="5" t="s">
-        <v>133</v>
+        <v>393</v>
       </c>
       <c r="B39" s="5">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
@@ -4846,10 +4868,10 @@
     </row>
     <row r="40" spans="1:3" ht="19">
       <c r="A40" s="5" t="s">
-        <v>393</v>
+        <v>140</v>
       </c>
       <c r="B40" s="5">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C40" s="5">
         <v>1</v>
@@ -4857,10 +4879,10 @@
     </row>
     <row r="41" spans="1:3" ht="19">
       <c r="A41" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B41" s="5">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
@@ -4868,10 +4890,10 @@
     </row>
     <row r="42" spans="1:3" ht="19">
       <c r="A42" s="5" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="B42" s="5">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C42" s="5">
         <v>1</v>
@@ -4879,10 +4901,10 @@
     </row>
     <row r="43" spans="1:3" ht="19">
       <c r="A43" s="5" t="s">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="B43" s="5">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C43" s="5">
         <v>1</v>
@@ -4890,10 +4912,10 @@
     </row>
     <row r="44" spans="1:3" ht="19">
       <c r="A44" s="5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B44" s="5">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C44" s="5">
         <v>1</v>
@@ -4901,10 +4923,10 @@
     </row>
     <row r="45" spans="1:3" ht="19">
       <c r="A45" s="5" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="B45" s="5">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C45" s="5">
         <v>1</v>
@@ -4912,10 +4934,10 @@
     </row>
     <row r="46" spans="1:3" ht="19">
       <c r="A46" s="5" t="s">
-        <v>291</v>
+        <v>146</v>
       </c>
       <c r="B46" s="5">
-        <v>238</v>
+        <v>301</v>
       </c>
       <c r="C46" s="5">
         <v>1</v>
@@ -4923,10 +4945,10 @@
     </row>
     <row r="47" spans="1:3" ht="19">
       <c r="A47" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B47" s="5">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C47" s="5">
         <v>1</v>
@@ -4934,10 +4956,10 @@
     </row>
     <row r="48" spans="1:3" ht="19">
       <c r="A48" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B48" s="5">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C48" s="5">
         <v>1</v>
@@ -4945,10 +4967,10 @@
     </row>
     <row r="49" spans="1:3" ht="19">
       <c r="A49" s="5" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="B49" s="5">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C49" s="5">
         <v>1</v>
@@ -4956,10 +4978,10 @@
     </row>
     <row r="50" spans="1:3" ht="19">
       <c r="A50" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B50" s="5">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C50" s="5">
         <v>1</v>
@@ -4967,10 +4989,10 @@
     </row>
     <row r="51" spans="1:3" ht="19">
       <c r="A51" s="5" t="s">
-        <v>187</v>
+        <v>395</v>
       </c>
       <c r="B51" s="5">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C51" s="5">
         <v>1</v>
@@ -4978,10 +5000,10 @@
     </row>
     <row r="52" spans="1:3" ht="19">
       <c r="A52" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B52" s="5">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C52" s="5">
         <v>1</v>
@@ -4989,10 +5011,10 @@
     </row>
     <row r="53" spans="1:3" ht="19">
       <c r="A53" s="5" t="s">
-        <v>396</v>
+        <v>196</v>
       </c>
       <c r="B53" s="5">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C53" s="5">
         <v>1</v>
@@ -5000,10 +5022,10 @@
     </row>
     <row r="54" spans="1:3" ht="19">
       <c r="A54" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B54" s="5">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -5011,10 +5033,10 @@
     </row>
     <row r="55" spans="1:3" ht="19">
       <c r="A55" s="5" t="s">
-        <v>199</v>
+        <v>394</v>
       </c>
       <c r="B55" s="5">
-        <v>309</v>
+        <v>401</v>
       </c>
       <c r="C55" s="5">
         <v>1</v>
@@ -5022,10 +5044,10 @@
     </row>
     <row r="56" spans="1:3" ht="19">
       <c r="A56" s="5" t="s">
-        <v>394</v>
+        <v>166</v>
       </c>
       <c r="B56" s="5">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C56" s="5">
         <v>1</v>
@@ -5033,10 +5055,10 @@
     </row>
     <row r="57" spans="1:3" ht="19">
       <c r="A57" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B57" s="5">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C57" s="5">
         <v>1</v>
@@ -5044,10 +5066,10 @@
     </row>
     <row r="58" spans="1:3" ht="19">
       <c r="A58" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B58" s="5">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C58" s="5">
         <v>1</v>
@@ -5055,10 +5077,10 @@
     </row>
     <row r="59" spans="1:3" ht="19">
       <c r="A59" s="5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B59" s="5">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C59" s="5">
         <v>1</v>
@@ -5066,10 +5088,10 @@
     </row>
     <row r="60" spans="1:3" ht="19">
       <c r="A60" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B60" s="5">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C60" s="5">
         <v>1</v>
@@ -5077,10 +5099,10 @@
     </row>
     <row r="61" spans="1:3" ht="19">
       <c r="A61" s="5" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="B61" s="5">
-        <v>406</v>
+        <v>501</v>
       </c>
       <c r="C61" s="5">
         <v>1</v>
@@ -5088,10 +5110,10 @@
     </row>
     <row r="62" spans="1:3" ht="19">
       <c r="A62" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B62" s="5">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C62" s="5">
         <v>1</v>
@@ -5099,10 +5121,10 @@
     </row>
     <row r="63" spans="1:3" ht="19">
       <c r="A63" s="5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B63" s="5">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C63" s="5">
         <v>1</v>
@@ -5110,10 +5132,10 @@
     </row>
     <row r="64" spans="1:3" ht="19">
       <c r="A64" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B64" s="5">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C64" s="5">
         <v>1</v>
@@ -5121,10 +5143,10 @@
     </row>
     <row r="65" spans="1:3" ht="19">
       <c r="A65" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B65" s="5">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C65" s="5">
         <v>1</v>
@@ -5132,10 +5154,10 @@
     </row>
     <row r="66" spans="1:3" ht="19">
       <c r="A66" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B66" s="5">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C66" s="5">
         <v>1</v>
@@ -5143,10 +5165,10 @@
     </row>
     <row r="67" spans="1:3" ht="19">
       <c r="A67" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B67" s="5">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C67" s="5">
         <v>1</v>
@@ -5154,10 +5176,10 @@
     </row>
     <row r="68" spans="1:3" ht="19">
       <c r="A68" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B68" s="5">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C68" s="5">
         <v>1</v>
@@ -5165,10 +5187,10 @@
     </row>
     <row r="69" spans="1:3" ht="19">
       <c r="A69" s="5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B69" s="5">
-        <v>508</v>
+        <v>601</v>
       </c>
       <c r="C69" s="5">
         <v>1</v>
@@ -5176,10 +5198,10 @@
     </row>
     <row r="70" spans="1:3" ht="19">
       <c r="A70" s="5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B70" s="5">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C70" s="5">
         <v>1</v>
@@ -5187,10 +5209,10 @@
     </row>
     <row r="71" spans="1:3" ht="19">
       <c r="A71" s="5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B71" s="5">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C71" s="5">
         <v>1</v>
@@ -5198,10 +5220,10 @@
     </row>
     <row r="72" spans="1:3" ht="19">
       <c r="A72" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B72" s="5">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C72" s="5">
         <v>1</v>
@@ -5209,10 +5231,10 @@
     </row>
     <row r="73" spans="1:3" ht="19">
       <c r="A73" s="5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B73" s="5">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C73" s="5">
         <v>1</v>
@@ -5220,10 +5242,10 @@
     </row>
     <row r="74" spans="1:3" ht="19">
       <c r="A74" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B74" s="5">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C74" s="5">
         <v>1</v>
@@ -5231,10 +5253,10 @@
     </row>
     <row r="75" spans="1:3" ht="19">
       <c r="A75" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B75" s="5">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C75" s="5">
         <v>1</v>
@@ -5242,10 +5264,10 @@
     </row>
     <row r="76" spans="1:3" ht="19">
       <c r="A76" s="5" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B76" s="5">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C76" s="5">
         <v>1</v>
@@ -5253,10 +5275,10 @@
     </row>
     <row r="77" spans="1:3" ht="19">
       <c r="A77" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B77" s="5">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C77" s="5">
         <v>1</v>
@@ -5264,10 +5286,10 @@
     </row>
     <row r="78" spans="1:3" ht="19">
       <c r="A78" s="5" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B78" s="5">
-        <v>609</v>
+        <v>701</v>
       </c>
       <c r="C78" s="5">
         <v>1</v>
@@ -5275,10 +5297,10 @@
     </row>
     <row r="79" spans="1:3" ht="19">
       <c r="A79" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B79" s="5">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C79" s="5">
         <v>1</v>
@@ -5286,10 +5308,10 @@
     </row>
     <row r="80" spans="1:3" ht="19">
       <c r="A80" s="5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B80" s="5">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C80" s="5">
         <v>1</v>
@@ -5297,10 +5319,10 @@
     </row>
     <row r="81" spans="1:3" ht="19">
       <c r="A81" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B81" s="5">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C81" s="5">
         <v>1</v>
@@ -5308,10 +5330,10 @@
     </row>
     <row r="82" spans="1:3" ht="19">
       <c r="A82" s="5" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B82" s="5">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C82" s="5">
         <v>1</v>
@@ -5319,10 +5341,10 @@
     </row>
     <row r="83" spans="1:3" ht="19">
       <c r="A83" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B83" s="5">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C83" s="5">
         <v>1</v>
@@ -5330,10 +5352,10 @@
     </row>
     <row r="84" spans="1:3" ht="19">
       <c r="A84" s="5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B84" s="5">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C84" s="5">
         <v>1</v>
@@ -5341,10 +5363,10 @@
     </row>
     <row r="85" spans="1:3" ht="19">
       <c r="A85" s="5" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B85" s="5">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C85" s="5">
         <v>1</v>
@@ -5352,10 +5374,10 @@
     </row>
     <row r="86" spans="1:3" ht="19">
       <c r="A86" s="5" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B86" s="5">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C86" s="5">
         <v>1</v>
@@ -5363,10 +5385,10 @@
     </row>
     <row r="87" spans="1:3" ht="19">
       <c r="A87" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="B87" s="5">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C87" s="5">
         <v>1</v>
@@ -5374,10 +5396,10 @@
     </row>
     <row r="88" spans="1:3" ht="19">
       <c r="A88" s="5" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B88" s="5">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C88" s="5">
         <v>1</v>
@@ -5385,55 +5407,65 @@
     </row>
     <row r="89" spans="1:3" ht="19">
       <c r="A89" s="5" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B89" s="5">
-        <v>712</v>
-      </c>
-      <c r="C89" s="5"/>
+        <v>713</v>
+      </c>
+      <c r="C89" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:3" ht="19">
       <c r="A90" s="5" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B90" s="5">
-        <v>713</v>
-      </c>
-      <c r="C90" s="5"/>
+        <v>714</v>
+      </c>
+      <c r="C90" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:3" ht="19">
       <c r="A91" s="5" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B91" s="5">
-        <v>714</v>
-      </c>
-      <c r="C91" s="5"/>
+        <v>715</v>
+      </c>
+      <c r="C91" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:3" ht="19">
       <c r="A92" s="5" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B92" s="5">
-        <v>715</v>
-      </c>
-      <c r="C92" s="5"/>
+        <v>716</v>
+      </c>
+      <c r="C92" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:3" ht="19">
       <c r="A93" s="5" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B93" s="5">
-        <v>716</v>
-      </c>
-      <c r="C93" s="5"/>
+        <v>717</v>
+      </c>
+      <c r="C93" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="1:3" ht="19">
       <c r="A94" s="5" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B94" s="5">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C94" s="5">
         <v>1</v>
@@ -5441,10 +5473,10 @@
     </row>
     <row r="95" spans="1:3" ht="19">
       <c r="A95" s="5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B95" s="5">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C95" s="5">
         <v>1</v>
@@ -5452,19 +5484,21 @@
     </row>
     <row r="96" spans="1:3" ht="19">
       <c r="A96" s="5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B96" s="5">
-        <v>719</v>
-      </c>
-      <c r="C96" s="5"/>
+        <v>801</v>
+      </c>
+      <c r="C96" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="1:3" ht="19">
       <c r="A97" s="5" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B97" s="5">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C97" s="5">
         <v>1</v>
@@ -5472,10 +5506,10 @@
     </row>
     <row r="98" spans="1:3" ht="19">
       <c r="A98" s="5" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B98" s="5">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C98" s="5">
         <v>1</v>
@@ -5483,10 +5517,10 @@
     </row>
     <row r="99" spans="1:3" ht="19">
       <c r="A99" s="5" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B99" s="5">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C99" s="5">
         <v>1</v>
@@ -5494,10 +5528,10 @@
     </row>
     <row r="100" spans="1:3" ht="19">
       <c r="A100" s="5" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B100" s="5">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C100" s="5">
         <v>1</v>
@@ -5505,10 +5539,10 @@
     </row>
     <row r="101" spans="1:3" ht="19">
       <c r="A101" s="5" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B101" s="5">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C101" s="5">
         <v>1</v>
@@ -5516,29 +5550,18 @@
     </row>
     <row r="102" spans="1:3" ht="19">
       <c r="A102" s="5" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B102" s="5">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C102" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="19">
-      <c r="A103" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B103" s="5">
-        <v>807</v>
-      </c>
-      <c r="C103" s="5">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:C103">
-    <sortCondition ref="B78"/>
+  <sortState ref="A2:C102">
+    <sortCondition ref="B77"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/coordinates_sample/区划编号.xlsx
+++ b/coordinates_sample/区划编号.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/汉书-地理志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE63F23E-6161-A343-9A62-8C8BD9274CD4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BFF03D-5C68-3446-A93E-BC0EE08448FB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="郡区划编号" sheetId="4" r:id="rId2"/>
     <sheet name="划分依据" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="399">
   <si>
     <t>刺史部</t>
   </si>
@@ -1332,6 +1332,17 @@
   </si>
   <si>
     <t>丹扬郡</t>
+  </si>
+  <si>
+    <t>六安国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楚国</t>
+    <rPh sb="0" eb="1">
+      <t>tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4431,10 +4442,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="77" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="77" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5022,7 +5033,7 @@
     </row>
     <row r="54" spans="1:3" ht="19">
       <c r="A54" s="5" t="s">
-        <v>199</v>
+        <v>397</v>
       </c>
       <c r="B54" s="5">
         <v>309</v>
@@ -5033,10 +5044,10 @@
     </row>
     <row r="55" spans="1:3" ht="19">
       <c r="A55" s="5" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B55" s="5">
-        <v>401</v>
+        <v>310</v>
       </c>
       <c r="C55" s="5">
         <v>1</v>
@@ -5044,10 +5055,10 @@
     </row>
     <row r="56" spans="1:3" ht="19">
       <c r="A56" s="5" t="s">
-        <v>166</v>
+        <v>394</v>
       </c>
       <c r="B56" s="5">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C56" s="5">
         <v>1</v>
@@ -5055,10 +5066,10 @@
     </row>
     <row r="57" spans="1:3" ht="19">
       <c r="A57" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B57" s="5">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C57" s="5">
         <v>1</v>
@@ -5066,10 +5077,10 @@
     </row>
     <row r="58" spans="1:3" ht="19">
       <c r="A58" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B58" s="5">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C58" s="5">
         <v>1</v>
@@ -5077,10 +5088,10 @@
     </row>
     <row r="59" spans="1:3" ht="19">
       <c r="A59" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B59" s="5">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C59" s="5">
         <v>1</v>
@@ -5088,10 +5099,10 @@
     </row>
     <row r="60" spans="1:3" ht="19">
       <c r="A60" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B60" s="5">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C60" s="5">
         <v>1</v>
@@ -5099,10 +5110,10 @@
     </row>
     <row r="61" spans="1:3" ht="19">
       <c r="A61" s="5" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="B61" s="5">
-        <v>501</v>
+        <v>406</v>
       </c>
       <c r="C61" s="5">
         <v>1</v>
@@ -5110,10 +5121,10 @@
     </row>
     <row r="62" spans="1:3" ht="19">
       <c r="A62" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B62" s="5">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C62" s="5">
         <v>1</v>
@@ -5121,10 +5132,10 @@
     </row>
     <row r="63" spans="1:3" ht="19">
       <c r="A63" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B63" s="5">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C63" s="5">
         <v>1</v>
@@ -5132,10 +5143,10 @@
     </row>
     <row r="64" spans="1:3" ht="19">
       <c r="A64" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B64" s="5">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C64" s="5">
         <v>1</v>
@@ -5143,10 +5154,10 @@
     </row>
     <row r="65" spans="1:3" ht="19">
       <c r="A65" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B65" s="5">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C65" s="5">
         <v>1</v>
@@ -5154,10 +5165,10 @@
     </row>
     <row r="66" spans="1:3" ht="19">
       <c r="A66" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B66" s="5">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C66" s="5">
         <v>1</v>
@@ -5165,10 +5176,10 @@
     </row>
     <row r="67" spans="1:3" ht="19">
       <c r="A67" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B67" s="5">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C67" s="5">
         <v>1</v>
@@ -5176,10 +5187,10 @@
     </row>
     <row r="68" spans="1:3" ht="19">
       <c r="A68" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B68" s="5">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C68" s="5">
         <v>1</v>
@@ -5187,10 +5198,10 @@
     </row>
     <row r="69" spans="1:3" ht="19">
       <c r="A69" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B69" s="5">
-        <v>601</v>
+        <v>508</v>
       </c>
       <c r="C69" s="5">
         <v>1</v>
@@ -5198,10 +5209,10 @@
     </row>
     <row r="70" spans="1:3" ht="19">
       <c r="A70" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B70" s="5">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C70" s="5">
         <v>1</v>
@@ -5209,10 +5220,10 @@
     </row>
     <row r="71" spans="1:3" ht="19">
       <c r="A71" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B71" s="5">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C71" s="5">
         <v>1</v>
@@ -5220,10 +5231,10 @@
     </row>
     <row r="72" spans="1:3" ht="19">
       <c r="A72" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B72" s="5">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C72" s="5">
         <v>1</v>
@@ -5231,10 +5242,10 @@
     </row>
     <row r="73" spans="1:3" ht="19">
       <c r="A73" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B73" s="5">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C73" s="5">
         <v>1</v>
@@ -5242,10 +5253,10 @@
     </row>
     <row r="74" spans="1:3" ht="19">
       <c r="A74" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B74" s="5">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C74" s="5">
         <v>1</v>
@@ -5253,10 +5264,10 @@
     </row>
     <row r="75" spans="1:3" ht="19">
       <c r="A75" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B75" s="5">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C75" s="5">
         <v>1</v>
@@ -5264,10 +5275,10 @@
     </row>
     <row r="76" spans="1:3" ht="19">
       <c r="A76" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B76" s="5">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C76" s="5">
         <v>1</v>
@@ -5275,10 +5286,10 @@
     </row>
     <row r="77" spans="1:3" ht="19">
       <c r="A77" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B77" s="5">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C77" s="5">
         <v>1</v>
@@ -5286,10 +5297,10 @@
     </row>
     <row r="78" spans="1:3" ht="19">
       <c r="A78" s="5" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B78" s="5">
-        <v>701</v>
+        <v>609</v>
       </c>
       <c r="C78" s="5">
         <v>1</v>
@@ -5297,10 +5308,10 @@
     </row>
     <row r="79" spans="1:3" ht="19">
       <c r="A79" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B79" s="5">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C79" s="5">
         <v>1</v>
@@ -5308,10 +5319,10 @@
     </row>
     <row r="80" spans="1:3" ht="19">
       <c r="A80" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B80" s="5">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C80" s="5">
         <v>1</v>
@@ -5319,10 +5330,10 @@
     </row>
     <row r="81" spans="1:3" ht="19">
       <c r="A81" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B81" s="5">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C81" s="5">
         <v>1</v>
@@ -5330,10 +5341,10 @@
     </row>
     <row r="82" spans="1:3" ht="19">
       <c r="A82" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B82" s="5">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C82" s="5">
         <v>1</v>
@@ -5341,10 +5352,10 @@
     </row>
     <row r="83" spans="1:3" ht="19">
       <c r="A83" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B83" s="5">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C83" s="5">
         <v>1</v>
@@ -5352,10 +5363,10 @@
     </row>
     <row r="84" spans="1:3" ht="19">
       <c r="A84" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B84" s="5">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C84" s="5">
         <v>1</v>
@@ -5363,10 +5374,10 @@
     </row>
     <row r="85" spans="1:3" ht="19">
       <c r="A85" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B85" s="5">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C85" s="5">
         <v>1</v>
@@ -5374,10 +5385,10 @@
     </row>
     <row r="86" spans="1:3" ht="19">
       <c r="A86" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B86" s="5">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C86" s="5">
         <v>1</v>
@@ -5385,10 +5396,10 @@
     </row>
     <row r="87" spans="1:3" ht="19">
       <c r="A87" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B87" s="5">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C87" s="5">
         <v>1</v>
@@ -5396,10 +5407,10 @@
     </row>
     <row r="88" spans="1:3" ht="19">
       <c r="A88" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B88" s="5">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C88" s="5">
         <v>1</v>
@@ -5407,10 +5418,10 @@
     </row>
     <row r="89" spans="1:3" ht="19">
       <c r="A89" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B89" s="5">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C89" s="5">
         <v>1</v>
@@ -5418,10 +5429,10 @@
     </row>
     <row r="90" spans="1:3" ht="19">
       <c r="A90" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B90" s="5">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C90" s="5">
         <v>1</v>
@@ -5429,10 +5440,10 @@
     </row>
     <row r="91" spans="1:3" ht="19">
       <c r="A91" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B91" s="5">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C91" s="5">
         <v>1</v>
@@ -5440,10 +5451,10 @@
     </row>
     <row r="92" spans="1:3" ht="19">
       <c r="A92" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B92" s="5">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C92" s="5">
         <v>1</v>
@@ -5451,10 +5462,10 @@
     </row>
     <row r="93" spans="1:3" ht="19">
       <c r="A93" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B93" s="5">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C93" s="5">
         <v>1</v>
@@ -5462,10 +5473,10 @@
     </row>
     <row r="94" spans="1:3" ht="19">
       <c r="A94" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B94" s="5">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C94" s="5">
         <v>1</v>
@@ -5473,10 +5484,10 @@
     </row>
     <row r="95" spans="1:3" ht="19">
       <c r="A95" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B95" s="5">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C95" s="5">
         <v>1</v>
@@ -5484,10 +5495,10 @@
     </row>
     <row r="96" spans="1:3" ht="19">
       <c r="A96" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B96" s="5">
-        <v>801</v>
+        <v>719</v>
       </c>
       <c r="C96" s="5">
         <v>1</v>
@@ -5495,10 +5506,10 @@
     </row>
     <row r="97" spans="1:3" ht="19">
       <c r="A97" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B97" s="5">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C97" s="5">
         <v>1</v>
@@ -5506,10 +5517,10 @@
     </row>
     <row r="98" spans="1:3" ht="19">
       <c r="A98" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B98" s="5">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C98" s="5">
         <v>1</v>
@@ -5517,10 +5528,10 @@
     </row>
     <row r="99" spans="1:3" ht="19">
       <c r="A99" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B99" s="5">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C99" s="5">
         <v>1</v>
@@ -5528,10 +5539,10 @@
     </row>
     <row r="100" spans="1:3" ht="19">
       <c r="A100" s="5" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B100" s="5">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C100" s="5">
         <v>1</v>
@@ -5539,10 +5550,10 @@
     </row>
     <row r="101" spans="1:3" ht="19">
       <c r="A101" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B101" s="5">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C101" s="5">
         <v>1</v>
@@ -5550,18 +5561,29 @@
     </row>
     <row r="102" spans="1:3" ht="19">
       <c r="A102" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B102" s="5">
+        <v>806</v>
+      </c>
+      <c r="C102" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="19">
+      <c r="A103" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B102" s="5">
+      <c r="B103" s="5">
         <v>807</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C103" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C102">
-    <sortCondition ref="B77"/>
+  <sortState ref="A2:C103">
+    <sortCondition ref="B78"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
